--- a/dinodata_cleaned.xlsx
+++ b/dinodata_cleaned.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1e369c438b8b056/Documents/PubPol 543/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deian\Documents\PUBPOL 543\datadumps\deliverable2\deliverable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{96C81AB6-60DB-4B0E-9324-76911A622F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE51FFB6-7B9B-4C6E-AF24-FDBC33233881}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A3AD8-7108-419C-8615-DF9A55F414CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4033,7 +4033,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -4514,7 +4514,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4870,10 +4870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M310"/>
+  <dimension ref="A1:L310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4881,10 +4881,10 @@
     <col min="4" max="4" width="6.90625" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4912,17 +4912,17 @@
       <c r="I1" t="s">
         <v>5</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4950,17 +4950,17 @@
       <c r="I2" t="s">
         <v>13</v>
       </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4988,17 +4988,17 @@
       <c r="I3" t="s">
         <v>21</v>
       </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5026,17 +5026,17 @@
       <c r="I4" t="s">
         <v>28</v>
       </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -5064,17 +5064,17 @@
       <c r="I5" t="s">
         <v>34</v>
       </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -5102,17 +5102,17 @@
       <c r="I6" t="s">
         <v>39</v>
       </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5140,17 +5140,17 @@
       <c r="I7" t="s">
         <v>45</v>
       </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -5178,17 +5178,17 @@
       <c r="I8" t="s">
         <v>51</v>
       </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -5216,17 +5216,17 @@
       <c r="I9" t="s">
         <v>58</v>
       </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -5254,17 +5254,17 @@
       <c r="I10" t="s">
         <v>63</v>
       </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -5292,17 +5292,17 @@
       <c r="I11" t="s">
         <v>68</v>
       </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -5330,17 +5330,17 @@
       <c r="I12" t="s">
         <v>74</v>
       </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -5368,17 +5368,17 @@
       <c r="I13" t="s">
         <v>79</v>
       </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -5406,17 +5406,17 @@
       <c r="I14" t="s">
         <v>79</v>
       </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L14" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -5444,17 +5444,17 @@
       <c r="I15" t="s">
         <v>88</v>
       </c>
+      <c r="J15" t="s">
+        <v>89</v>
+      </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -5482,17 +5482,17 @@
       <c r="I16" t="s">
         <v>94</v>
       </c>
+      <c r="J16" t="s">
+        <v>95</v>
+      </c>
       <c r="K16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -5520,17 +5520,17 @@
       <c r="I17" t="s">
         <v>99</v>
       </c>
+      <c r="J17" t="s">
+        <v>100</v>
+      </c>
       <c r="K17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s">
-        <v>101</v>
-      </c>
-      <c r="M17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -5558,17 +5558,17 @@
       <c r="I18" t="s">
         <v>104</v>
       </c>
+      <c r="J18" t="s">
+        <v>105</v>
+      </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -5596,17 +5596,17 @@
       <c r="I19" t="s">
         <v>63</v>
       </c>
+      <c r="J19" t="s">
+        <v>110</v>
+      </c>
       <c r="K19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -5634,17 +5634,17 @@
       <c r="I20" t="s">
         <v>114</v>
       </c>
+      <c r="J20" t="s">
+        <v>115</v>
+      </c>
       <c r="K20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L20" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -5672,17 +5672,17 @@
       <c r="I21" t="s">
         <v>119</v>
       </c>
+      <c r="J21" t="s">
+        <v>120</v>
+      </c>
       <c r="K21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L21" t="s">
-        <v>121</v>
-      </c>
-      <c r="M21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -5707,17 +5707,17 @@
       <c r="I22" t="s">
         <v>104</v>
       </c>
+      <c r="J22" t="s">
+        <v>124</v>
+      </c>
       <c r="K22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s">
-        <v>125</v>
-      </c>
-      <c r="M22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -5745,17 +5745,17 @@
       <c r="I23" t="s">
         <v>129</v>
       </c>
+      <c r="J23" t="s">
+        <v>130</v>
+      </c>
       <c r="K23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s">
-        <v>131</v>
-      </c>
-      <c r="M23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -5783,17 +5783,17 @@
       <c r="I24" t="s">
         <v>134</v>
       </c>
+      <c r="J24" t="s">
+        <v>135</v>
+      </c>
       <c r="K24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -5821,17 +5821,17 @@
       <c r="I25" t="s">
         <v>63</v>
       </c>
+      <c r="J25" t="s">
+        <v>140</v>
+      </c>
       <c r="K25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s">
-        <v>141</v>
-      </c>
-      <c r="M25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -5859,17 +5859,17 @@
       <c r="I26" t="s">
         <v>144</v>
       </c>
+      <c r="J26" t="s">
+        <v>89</v>
+      </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="L26" t="s">
-        <v>145</v>
-      </c>
-      <c r="M26" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -5897,17 +5897,17 @@
       <c r="I27" t="s">
         <v>114</v>
       </c>
+      <c r="J27" t="s">
+        <v>149</v>
+      </c>
       <c r="K27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L27" t="s">
-        <v>150</v>
-      </c>
-      <c r="M27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -5935,17 +5935,17 @@
       <c r="I28" t="s">
         <v>154</v>
       </c>
+      <c r="J28" t="s">
+        <v>155</v>
+      </c>
       <c r="K28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L28" t="s">
-        <v>156</v>
-      </c>
-      <c r="M28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -5973,17 +5973,17 @@
       <c r="I29" t="s">
         <v>159</v>
       </c>
+      <c r="J29" t="s">
+        <v>160</v>
+      </c>
       <c r="K29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s">
-        <v>161</v>
-      </c>
-      <c r="M29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -6008,17 +6008,17 @@
       <c r="I30" t="s">
         <v>165</v>
       </c>
+      <c r="J30" t="s">
+        <v>166</v>
+      </c>
       <c r="K30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s">
-        <v>167</v>
-      </c>
-      <c r="M30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>169</v>
       </c>
@@ -6046,17 +6046,17 @@
       <c r="I31" t="s">
         <v>134</v>
       </c>
+      <c r="J31" t="s">
+        <v>171</v>
+      </c>
       <c r="K31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s">
-        <v>172</v>
-      </c>
-      <c r="M31" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -6081,17 +6081,17 @@
       <c r="I32" t="s">
         <v>45</v>
       </c>
+      <c r="J32" t="s">
+        <v>175</v>
+      </c>
       <c r="K32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s">
-        <v>176</v>
-      </c>
-      <c r="M32" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -6119,17 +6119,17 @@
       <c r="I33" t="s">
         <v>119</v>
       </c>
+      <c r="J33" t="s">
+        <v>179</v>
+      </c>
       <c r="K33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L33" t="s">
-        <v>180</v>
-      </c>
-      <c r="M33" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -6157,17 +6157,17 @@
       <c r="I34" t="s">
         <v>58</v>
       </c>
+      <c r="J34" t="s">
+        <v>184</v>
+      </c>
       <c r="K34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s">
-        <v>185</v>
-      </c>
-      <c r="M34" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>187</v>
       </c>
@@ -6195,17 +6195,17 @@
       <c r="I35" t="s">
         <v>188</v>
       </c>
+      <c r="J35" t="s">
+        <v>189</v>
+      </c>
       <c r="K35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s">
-        <v>190</v>
-      </c>
-      <c r="M35" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>192</v>
       </c>
@@ -6233,17 +6233,17 @@
       <c r="I36" t="s">
         <v>45</v>
       </c>
+      <c r="J36" t="s">
+        <v>193</v>
+      </c>
       <c r="K36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L36" t="s">
-        <v>194</v>
-      </c>
-      <c r="M36" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>196</v>
       </c>
@@ -6271,17 +6271,17 @@
       <c r="I37" t="s">
         <v>28</v>
       </c>
+      <c r="J37" t="s">
+        <v>197</v>
+      </c>
       <c r="K37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L37" t="s">
-        <v>198</v>
-      </c>
-      <c r="M37" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -6309,17 +6309,17 @@
       <c r="I38" t="s">
         <v>202</v>
       </c>
+      <c r="J38" t="s">
+        <v>203</v>
+      </c>
       <c r="K38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L38" t="s">
-        <v>204</v>
-      </c>
-      <c r="M38" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>206</v>
       </c>
@@ -6347,17 +6347,17 @@
       <c r="I39" t="s">
         <v>207</v>
       </c>
+      <c r="J39" t="s">
+        <v>80</v>
+      </c>
       <c r="K39" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="L39" t="s">
-        <v>208</v>
-      </c>
-      <c r="M39" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>210</v>
       </c>
@@ -6385,17 +6385,17 @@
       <c r="I40" t="s">
         <v>212</v>
       </c>
+      <c r="J40" t="s">
+        <v>213</v>
+      </c>
       <c r="K40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L40" t="s">
-        <v>214</v>
-      </c>
-      <c r="M40" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>216</v>
       </c>
@@ -6423,17 +6423,17 @@
       <c r="I41" t="s">
         <v>34</v>
       </c>
+      <c r="J41" t="s">
+        <v>217</v>
+      </c>
       <c r="K41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L41" t="s">
-        <v>218</v>
-      </c>
-      <c r="M41" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>220</v>
       </c>
@@ -6461,17 +6461,17 @@
       <c r="I42" t="s">
         <v>222</v>
       </c>
+      <c r="J42" t="s">
+        <v>223</v>
+      </c>
       <c r="K42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L42" t="s">
-        <v>224</v>
-      </c>
-      <c r="M42" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>226</v>
       </c>
@@ -6499,17 +6499,17 @@
       <c r="I43" t="s">
         <v>144</v>
       </c>
+      <c r="J43" t="s">
+        <v>227</v>
+      </c>
       <c r="K43" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L43" t="s">
-        <v>228</v>
-      </c>
-      <c r="M43" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>230</v>
       </c>
@@ -6534,17 +6534,17 @@
       <c r="I44" t="s">
         <v>232</v>
       </c>
+      <c r="J44" t="s">
+        <v>233</v>
+      </c>
       <c r="K44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L44" t="s">
-        <v>234</v>
-      </c>
-      <c r="M44" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>236</v>
       </c>
@@ -6572,17 +6572,17 @@
       <c r="I45" t="s">
         <v>237</v>
       </c>
+      <c r="J45" t="s">
+        <v>238</v>
+      </c>
       <c r="K45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L45" t="s">
-        <v>239</v>
-      </c>
-      <c r="M45" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>241</v>
       </c>
@@ -6610,17 +6610,17 @@
       <c r="I46" t="s">
         <v>242</v>
       </c>
+      <c r="J46" t="s">
+        <v>243</v>
+      </c>
       <c r="K46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L46" t="s">
-        <v>244</v>
-      </c>
-      <c r="M46" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>246</v>
       </c>
@@ -6648,17 +6648,17 @@
       <c r="I47" t="s">
         <v>247</v>
       </c>
+      <c r="J47" t="s">
+        <v>248</v>
+      </c>
       <c r="K47" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L47" t="s">
-        <v>249</v>
-      </c>
-      <c r="M47" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>251</v>
       </c>
@@ -6686,17 +6686,17 @@
       <c r="I48" t="s">
         <v>252</v>
       </c>
+      <c r="J48" t="s">
+        <v>253</v>
+      </c>
       <c r="K48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L48" t="s">
-        <v>254</v>
-      </c>
-      <c r="M48" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>256</v>
       </c>
@@ -6724,17 +6724,17 @@
       <c r="I49" t="s">
         <v>257</v>
       </c>
+      <c r="J49" t="s">
+        <v>258</v>
+      </c>
       <c r="K49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L49" t="s">
-        <v>259</v>
-      </c>
-      <c r="M49" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>261</v>
       </c>
@@ -6762,17 +6762,17 @@
       <c r="I50" t="s">
         <v>154</v>
       </c>
+      <c r="J50" t="s">
+        <v>262</v>
+      </c>
       <c r="K50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L50" t="s">
-        <v>263</v>
-      </c>
-      <c r="M50" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>265</v>
       </c>
@@ -6797,17 +6797,17 @@
       <c r="I51" t="s">
         <v>99</v>
       </c>
+      <c r="J51" t="s">
+        <v>266</v>
+      </c>
       <c r="K51" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L51" t="s">
-        <v>267</v>
-      </c>
-      <c r="M51" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>269</v>
       </c>
@@ -6835,17 +6835,17 @@
       <c r="I52" t="s">
         <v>270</v>
       </c>
+      <c r="J52" t="s">
+        <v>271</v>
+      </c>
       <c r="K52" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L52" t="s">
-        <v>272</v>
-      </c>
-      <c r="M52" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>274</v>
       </c>
@@ -6873,17 +6873,17 @@
       <c r="I53" t="s">
         <v>275</v>
       </c>
+      <c r="J53" t="s">
+        <v>276</v>
+      </c>
       <c r="K53" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L53" t="s">
-        <v>277</v>
-      </c>
-      <c r="M53" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -6911,17 +6911,17 @@
       <c r="I54" t="s">
         <v>280</v>
       </c>
+      <c r="J54" t="s">
+        <v>124</v>
+      </c>
       <c r="K54" t="s">
-        <v>124</v>
+        <v>281</v>
       </c>
       <c r="L54" t="s">
-        <v>281</v>
-      </c>
-      <c r="M54" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>283</v>
       </c>
@@ -6949,17 +6949,17 @@
       <c r="I55" t="s">
         <v>39</v>
       </c>
+      <c r="J55" t="s">
+        <v>285</v>
+      </c>
       <c r="K55" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L55" t="s">
-        <v>286</v>
-      </c>
-      <c r="M55" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>288</v>
       </c>
@@ -6984,17 +6984,17 @@
       <c r="I56" t="s">
         <v>289</v>
       </c>
+      <c r="J56" t="s">
+        <v>290</v>
+      </c>
       <c r="K56" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L56" t="s">
-        <v>291</v>
-      </c>
-      <c r="M56" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>293</v>
       </c>
@@ -7022,17 +7022,17 @@
       <c r="I57" t="s">
         <v>294</v>
       </c>
+      <c r="J57" t="s">
+        <v>295</v>
+      </c>
       <c r="K57" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L57" t="s">
-        <v>296</v>
-      </c>
-      <c r="M57" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>298</v>
       </c>
@@ -7060,17 +7060,17 @@
       <c r="I58" t="s">
         <v>129</v>
       </c>
+      <c r="J58" t="s">
+        <v>299</v>
+      </c>
       <c r="K58" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L58" t="s">
-        <v>300</v>
-      </c>
-      <c r="M58" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>302</v>
       </c>
@@ -7098,14 +7098,14 @@
       <c r="I59" t="s">
         <v>28</v>
       </c>
-      <c r="K59" t="s">
+      <c r="J59" t="s">
         <v>303</v>
       </c>
-      <c r="M59" t="s">
+      <c r="L59" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>305</v>
       </c>
@@ -7133,17 +7133,17 @@
       <c r="I60" t="s">
         <v>306</v>
       </c>
+      <c r="J60" t="s">
+        <v>307</v>
+      </c>
       <c r="K60" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L60" t="s">
-        <v>308</v>
-      </c>
-      <c r="M60" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>310</v>
       </c>
@@ -7171,17 +7171,17 @@
       <c r="I61" t="s">
         <v>311</v>
       </c>
+      <c r="J61" t="s">
+        <v>312</v>
+      </c>
       <c r="K61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L61" t="s">
-        <v>313</v>
-      </c>
-      <c r="M61" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>315</v>
       </c>
@@ -7209,17 +7209,17 @@
       <c r="I62" t="s">
         <v>222</v>
       </c>
+      <c r="J62" t="s">
+        <v>316</v>
+      </c>
       <c r="K62" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L62" t="s">
-        <v>317</v>
-      </c>
-      <c r="M62" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>319</v>
       </c>
@@ -7247,17 +7247,17 @@
       <c r="I63" t="s">
         <v>159</v>
       </c>
+      <c r="J63" t="s">
+        <v>320</v>
+      </c>
       <c r="K63" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L63" t="s">
-        <v>321</v>
-      </c>
-      <c r="M63" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>323</v>
       </c>
@@ -7285,14 +7285,14 @@
       <c r="I64" t="s">
         <v>119</v>
       </c>
-      <c r="K64" t="s">
+      <c r="J64" t="s">
         <v>324</v>
       </c>
-      <c r="M64" t="s">
+      <c r="L64" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>326</v>
       </c>
@@ -7320,17 +7320,17 @@
       <c r="I65" t="s">
         <v>327</v>
       </c>
+      <c r="J65" t="s">
+        <v>328</v>
+      </c>
       <c r="K65" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L65" t="s">
-        <v>329</v>
-      </c>
-      <c r="M65" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>331</v>
       </c>
@@ -7358,17 +7358,17 @@
       <c r="I66" t="s">
         <v>332</v>
       </c>
+      <c r="J66" t="s">
+        <v>333</v>
+      </c>
       <c r="K66" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L66" t="s">
-        <v>334</v>
-      </c>
-      <c r="M66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>336</v>
       </c>
@@ -7396,17 +7396,17 @@
       <c r="I67" t="s">
         <v>337</v>
       </c>
+      <c r="J67" t="s">
+        <v>338</v>
+      </c>
       <c r="K67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L67" t="s">
-        <v>339</v>
-      </c>
-      <c r="M67" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>341</v>
       </c>
@@ -7434,17 +7434,17 @@
       <c r="I68" t="s">
         <v>45</v>
       </c>
+      <c r="J68" t="s">
+        <v>342</v>
+      </c>
       <c r="K68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L68" t="s">
-        <v>343</v>
-      </c>
-      <c r="M68" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>345</v>
       </c>
@@ -7472,17 +7472,17 @@
       <c r="I69" t="s">
         <v>346</v>
       </c>
+      <c r="J69" t="s">
+        <v>347</v>
+      </c>
       <c r="K69" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L69" t="s">
-        <v>348</v>
-      </c>
-      <c r="M69" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>350</v>
       </c>
@@ -7510,17 +7510,17 @@
       <c r="I70" t="s">
         <v>351</v>
       </c>
+      <c r="J70" t="s">
+        <v>352</v>
+      </c>
       <c r="K70" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L70" t="s">
-        <v>353</v>
-      </c>
-      <c r="M70" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>355</v>
       </c>
@@ -7548,14 +7548,14 @@
       <c r="I71" t="s">
         <v>357</v>
       </c>
-      <c r="K71" t="s">
+      <c r="J71" t="s">
         <v>358</v>
       </c>
-      <c r="M71" t="s">
+      <c r="L71" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>360</v>
       </c>
@@ -7583,17 +7583,17 @@
       <c r="I72" t="s">
         <v>361</v>
       </c>
+      <c r="J72" t="s">
+        <v>362</v>
+      </c>
       <c r="K72" t="s">
-        <v>362</v>
+        <v>90</v>
       </c>
       <c r="L72" t="s">
-        <v>90</v>
-      </c>
-      <c r="M72" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>364</v>
       </c>
@@ -7621,17 +7621,17 @@
       <c r="I73" t="s">
         <v>365</v>
       </c>
+      <c r="J73" t="s">
+        <v>366</v>
+      </c>
       <c r="K73" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L73" t="s">
-        <v>367</v>
-      </c>
-      <c r="M73" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>369</v>
       </c>
@@ -7659,17 +7659,17 @@
       <c r="I74" t="s">
         <v>370</v>
       </c>
+      <c r="J74" t="s">
+        <v>371</v>
+      </c>
       <c r="K74" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L74" t="s">
-        <v>372</v>
-      </c>
-      <c r="M74" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>374</v>
       </c>
@@ -7697,17 +7697,17 @@
       <c r="I75" t="s">
         <v>375</v>
       </c>
+      <c r="J75" t="s">
+        <v>376</v>
+      </c>
       <c r="K75" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L75" t="s">
-        <v>377</v>
-      </c>
-      <c r="M75" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>379</v>
       </c>
@@ -7735,17 +7735,17 @@
       <c r="I76" t="s">
         <v>380</v>
       </c>
+      <c r="J76" t="s">
+        <v>381</v>
+      </c>
       <c r="K76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M76" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>384</v>
       </c>
@@ -7773,17 +7773,17 @@
       <c r="I77" t="s">
         <v>385</v>
       </c>
+      <c r="J77" t="s">
+        <v>120</v>
+      </c>
       <c r="K77" t="s">
-        <v>120</v>
+        <v>386</v>
       </c>
       <c r="L77" t="s">
-        <v>386</v>
-      </c>
-      <c r="M77" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>388</v>
       </c>
@@ -7808,17 +7808,17 @@
       <c r="I78" t="s">
         <v>390</v>
       </c>
+      <c r="J78" t="s">
+        <v>391</v>
+      </c>
       <c r="K78" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L78" t="s">
-        <v>392</v>
-      </c>
-      <c r="M78" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>394</v>
       </c>
@@ -7846,17 +7846,17 @@
       <c r="I79" t="s">
         <v>395</v>
       </c>
+      <c r="J79" t="s">
+        <v>396</v>
+      </c>
       <c r="K79" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L79" t="s">
-        <v>397</v>
-      </c>
-      <c r="M79" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>399</v>
       </c>
@@ -7884,17 +7884,17 @@
       <c r="I80" t="s">
         <v>400</v>
       </c>
+      <c r="J80" t="s">
+        <v>401</v>
+      </c>
       <c r="K80" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L80" t="s">
-        <v>402</v>
-      </c>
-      <c r="M80" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>404</v>
       </c>
@@ -7919,17 +7919,17 @@
       <c r="I81" t="s">
         <v>332</v>
       </c>
+      <c r="J81" t="s">
+        <v>405</v>
+      </c>
       <c r="K81" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L81" t="s">
-        <v>406</v>
-      </c>
-      <c r="M81" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>408</v>
       </c>
@@ -7957,17 +7957,17 @@
       <c r="I82" t="s">
         <v>409</v>
       </c>
+      <c r="J82" t="s">
+        <v>410</v>
+      </c>
       <c r="K82" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L82" t="s">
-        <v>411</v>
-      </c>
-      <c r="M82" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>413</v>
       </c>
@@ -7995,17 +7995,17 @@
       <c r="I83" t="s">
         <v>34</v>
       </c>
+      <c r="J83" t="s">
+        <v>414</v>
+      </c>
       <c r="K83" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L83" t="s">
-        <v>415</v>
-      </c>
-      <c r="M83" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>417</v>
       </c>
@@ -8033,17 +8033,17 @@
       <c r="I84" t="s">
         <v>361</v>
       </c>
+      <c r="J84" t="s">
+        <v>419</v>
+      </c>
       <c r="K84" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L84" t="s">
-        <v>420</v>
-      </c>
-      <c r="M84" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>422</v>
       </c>
@@ -8071,17 +8071,17 @@
       <c r="I85" t="s">
         <v>99</v>
       </c>
+      <c r="J85" t="s">
+        <v>424</v>
+      </c>
       <c r="K85" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L85" t="s">
-        <v>425</v>
-      </c>
-      <c r="M85" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>427</v>
       </c>
@@ -8106,14 +8106,14 @@
       <c r="I86" t="s">
         <v>428</v>
       </c>
-      <c r="K86" t="s">
+      <c r="J86" t="s">
         <v>429</v>
       </c>
-      <c r="M86" t="s">
+      <c r="L86" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>431</v>
       </c>
@@ -8141,17 +8141,17 @@
       <c r="I87" t="s">
         <v>144</v>
       </c>
+      <c r="J87" t="s">
+        <v>432</v>
+      </c>
       <c r="K87" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L87" t="s">
-        <v>433</v>
-      </c>
-      <c r="M87" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>435</v>
       </c>
@@ -8179,17 +8179,17 @@
       <c r="I88" t="s">
         <v>34</v>
       </c>
+      <c r="J88" t="s">
+        <v>436</v>
+      </c>
       <c r="K88" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L88" t="s">
-        <v>437</v>
-      </c>
-      <c r="M88" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>439</v>
       </c>
@@ -8217,17 +8217,17 @@
       <c r="I89" t="s">
         <v>134</v>
       </c>
+      <c r="J89" t="s">
+        <v>440</v>
+      </c>
       <c r="K89" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L89" t="s">
-        <v>441</v>
-      </c>
-      <c r="M89" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>443</v>
       </c>
@@ -8255,17 +8255,17 @@
       <c r="I90" t="s">
         <v>444</v>
       </c>
+      <c r="J90" t="s">
+        <v>445</v>
+      </c>
       <c r="K90" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L90" t="s">
-        <v>446</v>
-      </c>
-      <c r="M90" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>448</v>
       </c>
@@ -8293,17 +8293,17 @@
       <c r="I91" t="s">
         <v>79</v>
       </c>
+      <c r="J91" t="s">
+        <v>449</v>
+      </c>
       <c r="K91" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L91" t="s">
-        <v>450</v>
-      </c>
-      <c r="M91" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>452</v>
       </c>
@@ -8331,17 +8331,17 @@
       <c r="I92" t="s">
         <v>51</v>
       </c>
+      <c r="J92" t="s">
+        <v>453</v>
+      </c>
       <c r="K92" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L92" t="s">
-        <v>454</v>
-      </c>
-      <c r="M92" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>456</v>
       </c>
@@ -8369,17 +8369,17 @@
       <c r="I93" t="s">
         <v>457</v>
       </c>
+      <c r="J93" t="s">
+        <v>458</v>
+      </c>
       <c r="K93" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L93" t="s">
-        <v>459</v>
-      </c>
-      <c r="M93" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>461</v>
       </c>
@@ -8407,17 +8407,17 @@
       <c r="I94" t="s">
         <v>154</v>
       </c>
+      <c r="J94" t="s">
+        <v>462</v>
+      </c>
       <c r="K94" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L94" t="s">
-        <v>463</v>
-      </c>
-      <c r="M94" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>465</v>
       </c>
@@ -8442,17 +8442,17 @@
       <c r="I95" t="s">
         <v>28</v>
       </c>
+      <c r="J95" t="s">
+        <v>29</v>
+      </c>
       <c r="K95" t="s">
-        <v>29</v>
+        <v>466</v>
       </c>
       <c r="L95" t="s">
-        <v>466</v>
-      </c>
-      <c r="M95" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>468</v>
       </c>
@@ -8480,17 +8480,17 @@
       <c r="I96" t="s">
         <v>306</v>
       </c>
+      <c r="J96" t="s">
+        <v>469</v>
+      </c>
       <c r="K96" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L96" t="s">
-        <v>470</v>
-      </c>
-      <c r="M96" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>472</v>
       </c>
@@ -8518,17 +8518,17 @@
       <c r="I97" t="s">
         <v>473</v>
       </c>
+      <c r="J97" t="s">
+        <v>474</v>
+      </c>
       <c r="K97" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L97" t="s">
-        <v>475</v>
-      </c>
-      <c r="M97" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>477</v>
       </c>
@@ -8556,17 +8556,17 @@
       <c r="I98" t="s">
         <v>478</v>
       </c>
+      <c r="J98" t="s">
+        <v>479</v>
+      </c>
       <c r="K98" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L98" t="s">
-        <v>480</v>
-      </c>
-      <c r="M98" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>482</v>
       </c>
@@ -8591,17 +8591,17 @@
       <c r="I99" t="s">
         <v>483</v>
       </c>
+      <c r="J99" t="s">
+        <v>484</v>
+      </c>
       <c r="K99" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L99" t="s">
-        <v>485</v>
-      </c>
-      <c r="M99" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>487</v>
       </c>
@@ -8629,17 +8629,17 @@
       <c r="I100" t="s">
         <v>79</v>
       </c>
+      <c r="J100" t="s">
+        <v>488</v>
+      </c>
       <c r="K100" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L100" t="s">
-        <v>489</v>
-      </c>
-      <c r="M100" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>491</v>
       </c>
@@ -8667,17 +8667,17 @@
       <c r="I101" t="s">
         <v>478</v>
       </c>
+      <c r="J101" t="s">
+        <v>492</v>
+      </c>
       <c r="K101" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L101" t="s">
-        <v>493</v>
-      </c>
-      <c r="M101" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>495</v>
       </c>
@@ -8699,17 +8699,17 @@
       <c r="I102" t="s">
         <v>45</v>
       </c>
+      <c r="J102" t="s">
+        <v>497</v>
+      </c>
       <c r="K102" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L102" t="s">
-        <v>498</v>
-      </c>
-      <c r="M102" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>500</v>
       </c>
@@ -8737,17 +8737,17 @@
       <c r="I103" t="s">
         <v>501</v>
       </c>
+      <c r="J103" t="s">
+        <v>502</v>
+      </c>
       <c r="K103" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L103" t="s">
-        <v>503</v>
-      </c>
-      <c r="M103" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>505</v>
       </c>
@@ -8775,17 +8775,17 @@
       <c r="I104" t="s">
         <v>114</v>
       </c>
+      <c r="J104" t="s">
+        <v>506</v>
+      </c>
       <c r="K104" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L104" t="s">
-        <v>507</v>
-      </c>
-      <c r="M104" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>509</v>
       </c>
@@ -8813,14 +8813,14 @@
       <c r="I105" t="s">
         <v>129</v>
       </c>
-      <c r="K105" t="s">
+      <c r="J105" t="s">
         <v>510</v>
       </c>
-      <c r="M105" t="s">
+      <c r="L105" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>512</v>
       </c>
@@ -8848,17 +8848,17 @@
       <c r="I106" t="s">
         <v>247</v>
       </c>
+      <c r="J106" t="s">
+        <v>513</v>
+      </c>
       <c r="K106" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L106" t="s">
-        <v>514</v>
-      </c>
-      <c r="M106" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>516</v>
       </c>
@@ -8883,17 +8883,17 @@
       <c r="I107" t="s">
         <v>51</v>
       </c>
+      <c r="J107" t="s">
+        <v>517</v>
+      </c>
       <c r="K107" t="s">
-        <v>517</v>
+        <v>317</v>
       </c>
       <c r="L107" t="s">
-        <v>317</v>
-      </c>
-      <c r="M107" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>519</v>
       </c>
@@ -8921,17 +8921,17 @@
       <c r="I108" t="s">
         <v>390</v>
       </c>
+      <c r="J108" t="s">
+        <v>521</v>
+      </c>
       <c r="K108" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L108" t="s">
-        <v>522</v>
-      </c>
-      <c r="M108" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>524</v>
       </c>
@@ -8959,17 +8959,17 @@
       <c r="I109" t="s">
         <v>478</v>
       </c>
+      <c r="J109" t="s">
+        <v>525</v>
+      </c>
       <c r="K109" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L109" t="s">
-        <v>526</v>
-      </c>
-      <c r="M109" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>528</v>
       </c>
@@ -8997,17 +8997,17 @@
       <c r="I110" t="s">
         <v>134</v>
       </c>
+      <c r="J110" t="s">
+        <v>529</v>
+      </c>
       <c r="K110" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L110" t="s">
-        <v>530</v>
-      </c>
-      <c r="M110" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>532</v>
       </c>
@@ -9035,17 +9035,17 @@
       <c r="I111" t="s">
         <v>533</v>
       </c>
+      <c r="J111" t="s">
+        <v>534</v>
+      </c>
       <c r="K111" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L111" t="s">
-        <v>535</v>
-      </c>
-      <c r="M111" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>537</v>
       </c>
@@ -9073,17 +9073,17 @@
       <c r="I112" t="s">
         <v>409</v>
       </c>
+      <c r="J112" t="s">
+        <v>538</v>
+      </c>
       <c r="K112" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L112" t="s">
-        <v>539</v>
-      </c>
-      <c r="M112" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>541</v>
       </c>
@@ -9111,17 +9111,17 @@
       <c r="I113" t="s">
         <v>542</v>
       </c>
+      <c r="J113" t="s">
+        <v>543</v>
+      </c>
       <c r="K113" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L113" t="s">
-        <v>544</v>
-      </c>
-      <c r="M113" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>546</v>
       </c>
@@ -9149,17 +9149,17 @@
       <c r="I114" t="s">
         <v>58</v>
       </c>
+      <c r="J114" t="s">
+        <v>547</v>
+      </c>
       <c r="K114" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L114" t="s">
-        <v>548</v>
-      </c>
-      <c r="M114" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>550</v>
       </c>
@@ -9187,17 +9187,17 @@
       <c r="I115" t="s">
         <v>533</v>
       </c>
+      <c r="J115" t="s">
+        <v>479</v>
+      </c>
       <c r="K115" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
       <c r="L115" t="s">
-        <v>551</v>
-      </c>
-      <c r="M115" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>553</v>
       </c>
@@ -9225,17 +9225,17 @@
       <c r="I116" t="s">
         <v>39</v>
       </c>
+      <c r="J116" t="s">
+        <v>554</v>
+      </c>
       <c r="K116" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L116" t="s">
-        <v>555</v>
-      </c>
-      <c r="M116" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>557</v>
       </c>
@@ -9263,17 +9263,17 @@
       <c r="I117" t="s">
         <v>207</v>
       </c>
+      <c r="J117" t="s">
+        <v>558</v>
+      </c>
       <c r="K117" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L117" t="s">
-        <v>559</v>
-      </c>
-      <c r="M117" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>561</v>
       </c>
@@ -9301,17 +9301,17 @@
       <c r="I118" t="s">
         <v>257</v>
       </c>
+      <c r="J118" t="s">
+        <v>424</v>
+      </c>
       <c r="K118" t="s">
-        <v>424</v>
+        <v>562</v>
       </c>
       <c r="L118" t="s">
-        <v>562</v>
-      </c>
-      <c r="M118" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>564</v>
       </c>
@@ -9339,17 +9339,17 @@
       <c r="I119" t="s">
         <v>129</v>
       </c>
+      <c r="J119" t="s">
+        <v>565</v>
+      </c>
       <c r="K119" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L119" t="s">
-        <v>566</v>
-      </c>
-      <c r="M119" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>568</v>
       </c>
@@ -9377,17 +9377,17 @@
       <c r="I120" t="s">
         <v>74</v>
       </c>
+      <c r="J120" t="s">
+        <v>75</v>
+      </c>
       <c r="K120" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L120" t="s">
-        <v>76</v>
-      </c>
-      <c r="M120" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>570</v>
       </c>
@@ -9415,17 +9415,17 @@
       <c r="I121" t="s">
         <v>571</v>
       </c>
+      <c r="J121" t="s">
+        <v>572</v>
+      </c>
       <c r="K121" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L121" t="s">
-        <v>573</v>
-      </c>
-      <c r="M121" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>575</v>
       </c>
@@ -9453,17 +9453,17 @@
       <c r="I122" t="s">
         <v>159</v>
       </c>
+      <c r="J122" t="s">
+        <v>576</v>
+      </c>
       <c r="K122" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="L122" t="s">
-        <v>559</v>
-      </c>
-      <c r="M122" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>578</v>
       </c>
@@ -9491,17 +9491,17 @@
       <c r="I123" t="s">
         <v>154</v>
       </c>
+      <c r="J123" t="s">
+        <v>579</v>
+      </c>
       <c r="K123" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L123" t="s">
-        <v>580</v>
-      </c>
-      <c r="M123" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>582</v>
       </c>
@@ -9529,17 +9529,17 @@
       <c r="I124" t="s">
         <v>483</v>
       </c>
+      <c r="J124" t="s">
+        <v>584</v>
+      </c>
       <c r="K124" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L124" t="s">
-        <v>585</v>
-      </c>
-      <c r="M124" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>587</v>
       </c>
@@ -9567,17 +9567,17 @@
       <c r="I125" t="s">
         <v>79</v>
       </c>
+      <c r="J125" t="s">
+        <v>588</v>
+      </c>
       <c r="K125" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L125" t="s">
-        <v>589</v>
-      </c>
-      <c r="M125" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>591</v>
       </c>
@@ -9605,17 +9605,17 @@
       <c r="I126" t="s">
         <v>154</v>
       </c>
+      <c r="J126" t="s">
+        <v>592</v>
+      </c>
       <c r="K126" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L126" t="s">
-        <v>593</v>
-      </c>
-      <c r="M126" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>595</v>
       </c>
@@ -9643,17 +9643,17 @@
       <c r="I127" t="s">
         <v>596</v>
       </c>
+      <c r="J127" t="s">
+        <v>597</v>
+      </c>
       <c r="K127" t="s">
-        <v>597</v>
+        <v>36</v>
       </c>
       <c r="L127" t="s">
-        <v>36</v>
-      </c>
-      <c r="M127" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>599</v>
       </c>
@@ -9681,17 +9681,17 @@
       <c r="I128" t="s">
         <v>275</v>
       </c>
+      <c r="J128" t="s">
+        <v>600</v>
+      </c>
       <c r="K128" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L128" t="s">
-        <v>601</v>
-      </c>
-      <c r="M128" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>603</v>
       </c>
@@ -9719,17 +9719,17 @@
       <c r="I129" t="s">
         <v>409</v>
       </c>
+      <c r="J129" t="s">
+        <v>604</v>
+      </c>
       <c r="K129" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L129" t="s">
-        <v>605</v>
-      </c>
-      <c r="M129" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>607</v>
       </c>
@@ -9754,17 +9754,17 @@
       <c r="I130" t="s">
         <v>327</v>
       </c>
+      <c r="J130" t="s">
+        <v>608</v>
+      </c>
       <c r="K130" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L130" t="s">
-        <v>609</v>
-      </c>
-      <c r="M130" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>611</v>
       </c>
@@ -9792,17 +9792,17 @@
       <c r="I131" t="s">
         <v>346</v>
       </c>
+      <c r="J131" t="s">
+        <v>612</v>
+      </c>
       <c r="K131" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L131" t="s">
-        <v>613</v>
-      </c>
-      <c r="M131" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>615</v>
       </c>
@@ -9827,17 +9827,17 @@
       <c r="I132" t="s">
         <v>616</v>
       </c>
+      <c r="J132" t="s">
+        <v>617</v>
+      </c>
       <c r="K132" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L132" t="s">
-        <v>618</v>
-      </c>
-      <c r="M132" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>620</v>
       </c>
@@ -9865,17 +9865,17 @@
       <c r="I133" t="s">
         <v>375</v>
       </c>
+      <c r="J133" t="s">
+        <v>538</v>
+      </c>
       <c r="K133" t="s">
-        <v>538</v>
+        <v>621</v>
       </c>
       <c r="L133" t="s">
-        <v>621</v>
-      </c>
-      <c r="M133" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>623</v>
       </c>
@@ -9903,17 +9903,17 @@
       <c r="I134" t="s">
         <v>624</v>
       </c>
+      <c r="J134" t="s">
+        <v>625</v>
+      </c>
       <c r="K134" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L134" t="s">
-        <v>626</v>
-      </c>
-      <c r="M134" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>628</v>
       </c>
@@ -9941,17 +9941,17 @@
       <c r="I135" t="s">
         <v>629</v>
       </c>
+      <c r="J135" t="s">
+        <v>630</v>
+      </c>
       <c r="K135" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L135" t="s">
-        <v>631</v>
-      </c>
-      <c r="M135" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>633</v>
       </c>
@@ -9979,17 +9979,17 @@
       <c r="I136" t="s">
         <v>533</v>
       </c>
+      <c r="J136" t="s">
+        <v>634</v>
+      </c>
       <c r="K136" t="s">
-        <v>634</v>
+        <v>397</v>
       </c>
       <c r="L136" t="s">
-        <v>397</v>
-      </c>
-      <c r="M136" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>636</v>
       </c>
@@ -10014,17 +10014,17 @@
       <c r="I137" t="s">
         <v>385</v>
       </c>
+      <c r="J137" t="s">
+        <v>637</v>
+      </c>
       <c r="K137" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L137" t="s">
-        <v>638</v>
-      </c>
-      <c r="M137" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>640</v>
       </c>
@@ -10049,17 +10049,17 @@
       <c r="I138" t="s">
         <v>641</v>
       </c>
+      <c r="J138" t="s">
+        <v>642</v>
+      </c>
       <c r="K138" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L138" t="s">
-        <v>643</v>
-      </c>
-      <c r="M138" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>645</v>
       </c>
@@ -10087,17 +10087,17 @@
       <c r="I139" t="s">
         <v>478</v>
       </c>
+      <c r="J139" t="s">
+        <v>646</v>
+      </c>
       <c r="K139" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L139" t="s">
-        <v>647</v>
-      </c>
-      <c r="M139" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>649</v>
       </c>
@@ -10125,17 +10125,17 @@
       <c r="I140" t="s">
         <v>306</v>
       </c>
+      <c r="J140" t="s">
+        <v>650</v>
+      </c>
       <c r="K140" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L140" t="s">
-        <v>651</v>
-      </c>
-      <c r="M140" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>653</v>
       </c>
@@ -10163,17 +10163,17 @@
       <c r="I141" t="s">
         <v>654</v>
       </c>
+      <c r="J141" t="s">
+        <v>655</v>
+      </c>
       <c r="K141" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L141" t="s">
-        <v>656</v>
-      </c>
-      <c r="M141" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>658</v>
       </c>
@@ -10201,17 +10201,17 @@
       <c r="I142" t="s">
         <v>63</v>
       </c>
+      <c r="J142" t="s">
+        <v>659</v>
+      </c>
       <c r="K142" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L142" t="s">
-        <v>660</v>
-      </c>
-      <c r="M142" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>662</v>
       </c>
@@ -10239,17 +10239,17 @@
       <c r="I143" t="s">
         <v>45</v>
       </c>
+      <c r="J143" t="s">
+        <v>663</v>
+      </c>
       <c r="K143" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L143" t="s">
-        <v>664</v>
-      </c>
-      <c r="M143" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>666</v>
       </c>
@@ -10277,17 +10277,17 @@
       <c r="I144" t="s">
         <v>385</v>
       </c>
+      <c r="J144" t="s">
+        <v>667</v>
+      </c>
       <c r="K144" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L144" t="s">
-        <v>668</v>
-      </c>
-      <c r="M144" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>670</v>
       </c>
@@ -10315,17 +10315,17 @@
       <c r="I145" t="s">
         <v>671</v>
       </c>
+      <c r="J145" t="s">
+        <v>672</v>
+      </c>
       <c r="K145" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L145" t="s">
-        <v>673</v>
-      </c>
-      <c r="M145" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>675</v>
       </c>
@@ -10353,17 +10353,17 @@
       <c r="I146" t="s">
         <v>478</v>
       </c>
+      <c r="J146" t="s">
+        <v>676</v>
+      </c>
       <c r="K146" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L146" t="s">
-        <v>677</v>
-      </c>
-      <c r="M146" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>679</v>
       </c>
@@ -10391,17 +10391,17 @@
       <c r="I147" t="s">
         <v>247</v>
       </c>
+      <c r="J147" t="s">
+        <v>680</v>
+      </c>
       <c r="K147" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L147" t="s">
-        <v>681</v>
-      </c>
-      <c r="M147" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>683</v>
       </c>
@@ -10429,17 +10429,17 @@
       <c r="I148" t="s">
         <v>370</v>
       </c>
+      <c r="J148" t="s">
+        <v>684</v>
+      </c>
       <c r="K148" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L148" t="s">
-        <v>685</v>
-      </c>
-      <c r="M148" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>687</v>
       </c>
@@ -10467,17 +10467,17 @@
       <c r="I149" t="s">
         <v>346</v>
       </c>
+      <c r="J149" t="s">
+        <v>688</v>
+      </c>
       <c r="K149" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L149" t="s">
-        <v>689</v>
-      </c>
-      <c r="M149" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>691</v>
       </c>
@@ -10505,17 +10505,17 @@
       <c r="I150" t="s">
         <v>375</v>
       </c>
+      <c r="J150" t="s">
+        <v>352</v>
+      </c>
       <c r="K150" t="s">
-        <v>352</v>
+        <v>692</v>
       </c>
       <c r="L150" t="s">
-        <v>692</v>
-      </c>
-      <c r="M150" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>694</v>
       </c>
@@ -10543,17 +10543,17 @@
       <c r="I151" t="s">
         <v>332</v>
       </c>
+      <c r="J151" t="s">
+        <v>695</v>
+      </c>
       <c r="K151" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L151" t="s">
-        <v>696</v>
-      </c>
-      <c r="M151" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>698</v>
       </c>
@@ -10581,17 +10581,17 @@
       <c r="I152" t="s">
         <v>154</v>
       </c>
+      <c r="J152" t="s">
+        <v>699</v>
+      </c>
       <c r="K152" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L152" t="s">
-        <v>700</v>
-      </c>
-      <c r="M152" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>702</v>
       </c>
@@ -10619,17 +10619,17 @@
       <c r="I153" t="s">
         <v>385</v>
       </c>
+      <c r="J153" t="s">
+        <v>703</v>
+      </c>
       <c r="K153" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L153" t="s">
-        <v>704</v>
-      </c>
-      <c r="M153" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>706</v>
       </c>
@@ -10657,17 +10657,17 @@
       <c r="I154" t="s">
         <v>708</v>
       </c>
+      <c r="J154" t="s">
+        <v>709</v>
+      </c>
       <c r="K154" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L154" t="s">
-        <v>710</v>
-      </c>
-      <c r="M154" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>712</v>
       </c>
@@ -10695,17 +10695,17 @@
       <c r="I155" t="s">
         <v>58</v>
       </c>
+      <c r="J155" t="s">
+        <v>184</v>
+      </c>
       <c r="K155" t="s">
-        <v>184</v>
+        <v>713</v>
       </c>
       <c r="L155" t="s">
-        <v>713</v>
-      </c>
-      <c r="M155" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>715</v>
       </c>
@@ -10733,17 +10733,17 @@
       <c r="I156" t="s">
         <v>716</v>
       </c>
+      <c r="J156" t="s">
+        <v>120</v>
+      </c>
       <c r="K156" t="s">
-        <v>120</v>
+        <v>377</v>
       </c>
       <c r="L156" t="s">
-        <v>377</v>
-      </c>
-      <c r="M156" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>718</v>
       </c>
@@ -10771,17 +10771,17 @@
       <c r="I157" t="s">
         <v>68</v>
       </c>
+      <c r="J157" t="s">
+        <v>720</v>
+      </c>
       <c r="K157" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L157" t="s">
-        <v>721</v>
-      </c>
-      <c r="M157" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>723</v>
       </c>
@@ -10809,17 +10809,17 @@
       <c r="I158" t="s">
         <v>159</v>
       </c>
+      <c r="J158" t="s">
+        <v>724</v>
+      </c>
       <c r="K158" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L158" t="s">
-        <v>725</v>
-      </c>
-      <c r="M158" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>727</v>
       </c>
@@ -10847,17 +10847,17 @@
       <c r="I159" t="s">
         <v>45</v>
       </c>
+      <c r="J159" t="s">
+        <v>728</v>
+      </c>
       <c r="K159" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L159" t="s">
-        <v>729</v>
-      </c>
-      <c r="M159" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>731</v>
       </c>
@@ -10885,17 +10885,17 @@
       <c r="I160" t="s">
         <v>732</v>
       </c>
+      <c r="J160" t="s">
+        <v>733</v>
+      </c>
       <c r="K160" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L160" t="s">
-        <v>734</v>
-      </c>
-      <c r="M160" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>736</v>
       </c>
@@ -10923,17 +10923,17 @@
       <c r="I161" t="s">
         <v>154</v>
       </c>
+      <c r="J161" t="s">
+        <v>737</v>
+      </c>
       <c r="K161" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="L161" t="s">
-        <v>738</v>
-      </c>
-      <c r="M161" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>740</v>
       </c>
@@ -10961,17 +10961,17 @@
       <c r="I162" t="s">
         <v>741</v>
       </c>
+      <c r="J162" t="s">
+        <v>742</v>
+      </c>
       <c r="K162" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L162" t="s">
-        <v>743</v>
-      </c>
-      <c r="M162" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>745</v>
       </c>
@@ -10999,17 +10999,17 @@
       <c r="I163" t="s">
         <v>365</v>
       </c>
+      <c r="J163" t="s">
+        <v>746</v>
+      </c>
       <c r="K163" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L163" t="s">
-        <v>747</v>
-      </c>
-      <c r="M163" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>749</v>
       </c>
@@ -11037,17 +11037,17 @@
       <c r="I164" t="s">
         <v>478</v>
       </c>
+      <c r="J164" t="s">
+        <v>750</v>
+      </c>
       <c r="K164" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="L164" t="s">
-        <v>751</v>
-      </c>
-      <c r="M164" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>753</v>
       </c>
@@ -11075,17 +11075,17 @@
       <c r="I165" t="s">
         <v>616</v>
       </c>
+      <c r="J165" t="s">
+        <v>754</v>
+      </c>
       <c r="K165" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L165" t="s">
-        <v>755</v>
-      </c>
-      <c r="M165" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>757</v>
       </c>
@@ -11113,17 +11113,17 @@
       <c r="I166" t="s">
         <v>63</v>
       </c>
+      <c r="J166" t="s">
+        <v>759</v>
+      </c>
       <c r="K166" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L166" t="s">
-        <v>760</v>
-      </c>
-      <c r="M166" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>762</v>
       </c>
@@ -11151,17 +11151,17 @@
       <c r="I167" t="s">
         <v>154</v>
       </c>
+      <c r="J167" t="s">
+        <v>763</v>
+      </c>
       <c r="K167" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="L167" t="s">
-        <v>764</v>
-      </c>
-      <c r="M167" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>766</v>
       </c>
@@ -11189,17 +11189,17 @@
       <c r="I168" t="s">
         <v>289</v>
       </c>
+      <c r="J168" t="s">
+        <v>767</v>
+      </c>
       <c r="K168" t="s">
-        <v>767</v>
+        <v>738</v>
       </c>
       <c r="L168" t="s">
-        <v>738</v>
-      </c>
-      <c r="M168" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>769</v>
       </c>
@@ -11227,17 +11227,17 @@
       <c r="I169" t="s">
         <v>63</v>
       </c>
+      <c r="J169" t="s">
+        <v>771</v>
+      </c>
       <c r="K169" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L169" t="s">
-        <v>772</v>
-      </c>
-      <c r="M169" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>774</v>
       </c>
@@ -11265,17 +11265,17 @@
       <c r="I170" t="s">
         <v>114</v>
       </c>
+      <c r="J170" t="s">
+        <v>775</v>
+      </c>
       <c r="K170" t="s">
-        <v>775</v>
+        <v>544</v>
       </c>
       <c r="L170" t="s">
-        <v>544</v>
-      </c>
-      <c r="M170" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>777</v>
       </c>
@@ -11303,17 +11303,17 @@
       <c r="I171" t="s">
         <v>778</v>
       </c>
+      <c r="J171" t="s">
+        <v>779</v>
+      </c>
       <c r="K171" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L171" t="s">
-        <v>780</v>
-      </c>
-      <c r="M171" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>782</v>
       </c>
@@ -11341,17 +11341,17 @@
       <c r="I172" t="s">
         <v>542</v>
       </c>
+      <c r="J172" t="s">
+        <v>783</v>
+      </c>
       <c r="K172" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L172" t="s">
-        <v>784</v>
-      </c>
-      <c r="M172" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>786</v>
       </c>
@@ -11379,17 +11379,17 @@
       <c r="I173" t="s">
         <v>188</v>
       </c>
+      <c r="J173" t="s">
+        <v>787</v>
+      </c>
       <c r="K173" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L173" t="s">
-        <v>788</v>
-      </c>
-      <c r="M173" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>790</v>
       </c>
@@ -11417,17 +11417,17 @@
       <c r="I174" t="s">
         <v>365</v>
       </c>
+      <c r="J174" t="s">
+        <v>791</v>
+      </c>
       <c r="K174" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L174" t="s">
-        <v>792</v>
-      </c>
-      <c r="M174" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>794</v>
       </c>
@@ -11452,17 +11452,17 @@
       <c r="I175" t="s">
         <v>795</v>
       </c>
+      <c r="J175" t="s">
+        <v>796</v>
+      </c>
       <c r="K175" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L175" t="s">
-        <v>797</v>
-      </c>
-      <c r="M175" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>799</v>
       </c>
@@ -11490,17 +11490,17 @@
       <c r="I176" t="s">
         <v>800</v>
       </c>
+      <c r="J176" t="s">
+        <v>801</v>
+      </c>
       <c r="K176" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="L176" t="s">
-        <v>802</v>
-      </c>
-      <c r="M176" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>804</v>
       </c>
@@ -11528,17 +11528,17 @@
       <c r="I177" t="s">
         <v>805</v>
       </c>
+      <c r="J177" t="s">
+        <v>754</v>
+      </c>
       <c r="K177" t="s">
-        <v>754</v>
+        <v>806</v>
       </c>
       <c r="L177" t="s">
-        <v>806</v>
-      </c>
-      <c r="M177" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>808</v>
       </c>
@@ -11566,17 +11566,17 @@
       <c r="I178" t="s">
         <v>237</v>
       </c>
+      <c r="J178" t="s">
+        <v>517</v>
+      </c>
       <c r="K178" t="s">
-        <v>517</v>
+        <v>809</v>
       </c>
       <c r="L178" t="s">
-        <v>809</v>
-      </c>
-      <c r="M178" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>811</v>
       </c>
@@ -11604,17 +11604,17 @@
       <c r="I179" t="s">
         <v>716</v>
       </c>
+      <c r="J179" t="s">
+        <v>812</v>
+      </c>
       <c r="K179" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L179" t="s">
-        <v>813</v>
-      </c>
-      <c r="M179" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>815</v>
       </c>
@@ -11642,17 +11642,17 @@
       <c r="I180" t="s">
         <v>816</v>
       </c>
+      <c r="J180" t="s">
+        <v>817</v>
+      </c>
       <c r="K180" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L180" t="s">
-        <v>818</v>
-      </c>
-      <c r="M180" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>820</v>
       </c>
@@ -11680,17 +11680,17 @@
       <c r="I181" t="s">
         <v>34</v>
       </c>
+      <c r="J181" t="s">
+        <v>821</v>
+      </c>
       <c r="K181" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="L181" t="s">
-        <v>822</v>
-      </c>
-      <c r="M181" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>824</v>
       </c>
@@ -11718,17 +11718,17 @@
       <c r="I182" t="s">
         <v>533</v>
       </c>
+      <c r="J182" t="s">
+        <v>825</v>
+      </c>
       <c r="K182" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="L182" t="s">
-        <v>826</v>
-      </c>
-      <c r="M182" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>828</v>
       </c>
@@ -11756,17 +11756,17 @@
       <c r="I183" t="s">
         <v>390</v>
       </c>
+      <c r="J183" t="s">
+        <v>829</v>
+      </c>
       <c r="K183" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L183" t="s">
-        <v>830</v>
-      </c>
-      <c r="M183" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>832</v>
       </c>
@@ -11794,17 +11794,17 @@
       <c r="I184" t="s">
         <v>94</v>
       </c>
+      <c r="J184" t="s">
+        <v>834</v>
+      </c>
       <c r="K184" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="L184" t="s">
-        <v>835</v>
-      </c>
-      <c r="M184" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>837</v>
       </c>
@@ -11832,17 +11832,17 @@
       <c r="I185" t="s">
         <v>365</v>
       </c>
+      <c r="J185" t="s">
+        <v>838</v>
+      </c>
       <c r="K185" t="s">
-        <v>838</v>
+        <v>116</v>
       </c>
       <c r="L185" t="s">
-        <v>116</v>
-      </c>
-      <c r="M185" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>840</v>
       </c>
@@ -11870,17 +11870,17 @@
       <c r="I186" t="s">
         <v>478</v>
       </c>
+      <c r="J186" t="s">
+        <v>841</v>
+      </c>
       <c r="K186" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="L186" t="s">
-        <v>842</v>
-      </c>
-      <c r="M186" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>844</v>
       </c>
@@ -11908,17 +11908,17 @@
       <c r="I187" t="s">
         <v>501</v>
       </c>
+      <c r="J187" t="s">
+        <v>845</v>
+      </c>
       <c r="K187" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L187" t="s">
-        <v>846</v>
-      </c>
-      <c r="M187" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>848</v>
       </c>
@@ -11946,17 +11946,17 @@
       <c r="I188" t="s">
         <v>119</v>
       </c>
+      <c r="J188" t="s">
+        <v>849</v>
+      </c>
       <c r="K188" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L188" t="s">
-        <v>850</v>
-      </c>
-      <c r="M188" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>852</v>
       </c>
@@ -11984,17 +11984,17 @@
       <c r="I189" t="s">
         <v>853</v>
       </c>
+      <c r="J189" t="s">
+        <v>854</v>
+      </c>
       <c r="K189" t="s">
-        <v>854</v>
+        <v>559</v>
       </c>
       <c r="L189" t="s">
-        <v>559</v>
-      </c>
-      <c r="M189" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>856</v>
       </c>
@@ -12022,17 +12022,17 @@
       <c r="I190" t="s">
         <v>39</v>
       </c>
+      <c r="J190" t="s">
+        <v>857</v>
+      </c>
       <c r="K190" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L190" t="s">
-        <v>858</v>
-      </c>
-      <c r="M190" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>860</v>
       </c>
@@ -12060,17 +12060,17 @@
       <c r="I191" t="s">
         <v>861</v>
       </c>
+      <c r="J191" t="s">
+        <v>862</v>
+      </c>
       <c r="K191" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="L191" t="s">
-        <v>863</v>
-      </c>
-      <c r="M191" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>865</v>
       </c>
@@ -12098,17 +12098,17 @@
       <c r="I192" t="s">
         <v>867</v>
       </c>
+      <c r="J192" t="s">
+        <v>868</v>
+      </c>
       <c r="K192" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="L192" t="s">
-        <v>869</v>
-      </c>
-      <c r="M192" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>871</v>
       </c>
@@ -12136,17 +12136,17 @@
       <c r="I193" t="s">
         <v>385</v>
       </c>
+      <c r="J193" t="s">
+        <v>873</v>
+      </c>
       <c r="K193" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L193" t="s">
-        <v>874</v>
-      </c>
-      <c r="M193" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>876</v>
       </c>
@@ -12174,17 +12174,17 @@
       <c r="I194" t="s">
         <v>188</v>
       </c>
+      <c r="J194" t="s">
+        <v>877</v>
+      </c>
       <c r="K194" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="L194" t="s">
-        <v>878</v>
-      </c>
-      <c r="M194" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>880</v>
       </c>
@@ -12212,17 +12212,17 @@
       <c r="I195" t="s">
         <v>457</v>
       </c>
+      <c r="J195" t="s">
+        <v>881</v>
+      </c>
       <c r="K195" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="L195" t="s">
-        <v>882</v>
-      </c>
-      <c r="M195" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>884</v>
       </c>
@@ -12250,17 +12250,17 @@
       <c r="I196" t="s">
         <v>337</v>
       </c>
+      <c r="J196" t="s">
+        <v>885</v>
+      </c>
       <c r="K196" t="s">
-        <v>885</v>
+        <v>813</v>
       </c>
       <c r="L196" t="s">
-        <v>813</v>
-      </c>
-      <c r="M196" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>887</v>
       </c>
@@ -12288,17 +12288,17 @@
       <c r="I197" t="s">
         <v>501</v>
       </c>
+      <c r="J197" t="s">
+        <v>888</v>
+      </c>
       <c r="K197" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="L197" t="s">
-        <v>889</v>
-      </c>
-      <c r="M197" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>891</v>
       </c>
@@ -12326,17 +12326,17 @@
       <c r="I198" t="s">
         <v>361</v>
       </c>
+      <c r="J198" t="s">
+        <v>892</v>
+      </c>
       <c r="K198" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="L198" t="s">
-        <v>893</v>
-      </c>
-      <c r="M198" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>895</v>
       </c>
@@ -12364,17 +12364,17 @@
       <c r="I199" t="s">
         <v>114</v>
       </c>
+      <c r="J199" t="s">
+        <v>896</v>
+      </c>
       <c r="K199" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L199" t="s">
-        <v>897</v>
-      </c>
-      <c r="M199" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>899</v>
       </c>
@@ -12402,17 +12402,17 @@
       <c r="I200" t="s">
         <v>861</v>
       </c>
+      <c r="J200" t="s">
+        <v>900</v>
+      </c>
       <c r="K200" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="L200" t="s">
-        <v>901</v>
-      </c>
-      <c r="M200" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>903</v>
       </c>
@@ -12440,17 +12440,17 @@
       <c r="I201" t="s">
         <v>361</v>
       </c>
+      <c r="J201" t="s">
+        <v>904</v>
+      </c>
       <c r="K201" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="L201" t="s">
-        <v>905</v>
-      </c>
-      <c r="M201" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>907</v>
       </c>
@@ -12478,17 +12478,17 @@
       <c r="I202" t="s">
         <v>134</v>
       </c>
+      <c r="J202" t="s">
+        <v>227</v>
+      </c>
       <c r="K202" t="s">
-        <v>227</v>
+        <v>908</v>
       </c>
       <c r="L202" t="s">
-        <v>908</v>
-      </c>
-      <c r="M202" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>910</v>
       </c>
@@ -12513,17 +12513,17 @@
       <c r="I203" t="s">
         <v>58</v>
       </c>
+      <c r="J203" t="s">
+        <v>911</v>
+      </c>
       <c r="K203" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L203" t="s">
-        <v>912</v>
-      </c>
-      <c r="M203" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>914</v>
       </c>
@@ -12551,17 +12551,17 @@
       <c r="I204" t="s">
         <v>68</v>
       </c>
+      <c r="J204" t="s">
+        <v>915</v>
+      </c>
       <c r="K204" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="L204" t="s">
-        <v>916</v>
-      </c>
-      <c r="M204" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>918</v>
       </c>
@@ -12589,17 +12589,17 @@
       <c r="I205" t="s">
         <v>58</v>
       </c>
+      <c r="J205" t="s">
+        <v>89</v>
+      </c>
       <c r="K205" t="s">
-        <v>89</v>
+        <v>919</v>
       </c>
       <c r="L205" t="s">
-        <v>919</v>
-      </c>
-      <c r="M205" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>921</v>
       </c>
@@ -12627,17 +12627,17 @@
       <c r="I206" t="s">
         <v>478</v>
       </c>
+      <c r="J206" t="s">
+        <v>922</v>
+      </c>
       <c r="K206" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L206" t="s">
-        <v>923</v>
-      </c>
-      <c r="M206" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>925</v>
       </c>
@@ -12665,17 +12665,17 @@
       <c r="I207" t="s">
         <v>351</v>
       </c>
+      <c r="J207" t="s">
+        <v>926</v>
+      </c>
       <c r="K207" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="L207" t="s">
-        <v>927</v>
-      </c>
-      <c r="M207" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>929</v>
       </c>
@@ -12703,17 +12703,17 @@
       <c r="I208" t="s">
         <v>930</v>
       </c>
+      <c r="J208" t="s">
+        <v>931</v>
+      </c>
       <c r="K208" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="L208" t="s">
-        <v>932</v>
-      </c>
-      <c r="M208" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>934</v>
       </c>
@@ -12741,17 +12741,17 @@
       <c r="I209" t="s">
         <v>28</v>
       </c>
+      <c r="J209" t="s">
+        <v>935</v>
+      </c>
       <c r="K209" t="s">
-        <v>935</v>
+        <v>263</v>
       </c>
       <c r="L209" t="s">
-        <v>263</v>
-      </c>
-      <c r="M209" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>937</v>
       </c>
@@ -12779,17 +12779,17 @@
       <c r="I210" t="s">
         <v>457</v>
       </c>
+      <c r="J210" t="s">
+        <v>938</v>
+      </c>
       <c r="K210" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="L210" t="s">
-        <v>939</v>
-      </c>
-      <c r="M210" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>941</v>
       </c>
@@ -12811,17 +12811,17 @@
       <c r="I211" t="s">
         <v>741</v>
       </c>
+      <c r="J211" t="s">
+        <v>944</v>
+      </c>
       <c r="K211" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="L211" t="s">
-        <v>945</v>
-      </c>
-      <c r="M211" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>947</v>
       </c>
@@ -12849,17 +12849,17 @@
       <c r="I212" t="s">
         <v>63</v>
       </c>
+      <c r="J212" t="s">
+        <v>948</v>
+      </c>
       <c r="K212" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="L212" t="s">
-        <v>949</v>
-      </c>
-      <c r="M212" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>951</v>
       </c>
@@ -12887,17 +12887,17 @@
       <c r="I213" t="s">
         <v>385</v>
       </c>
+      <c r="J213" t="s">
+        <v>952</v>
+      </c>
       <c r="K213" t="s">
-        <v>952</v>
+        <v>234</v>
       </c>
       <c r="L213" t="s">
-        <v>234</v>
-      </c>
-      <c r="M213" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>954</v>
       </c>
@@ -12925,17 +12925,17 @@
       <c r="I214" t="s">
         <v>58</v>
       </c>
+      <c r="J214" t="s">
+        <v>955</v>
+      </c>
       <c r="K214" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="L214" t="s">
-        <v>956</v>
-      </c>
-      <c r="M214" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>958</v>
       </c>
@@ -12963,17 +12963,17 @@
       <c r="I215" t="s">
         <v>222</v>
       </c>
+      <c r="J215" t="s">
+        <v>959</v>
+      </c>
       <c r="K215" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="L215" t="s">
-        <v>960</v>
-      </c>
-      <c r="M215" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>962</v>
       </c>
@@ -13001,17 +13001,17 @@
       <c r="I216" t="s">
         <v>409</v>
       </c>
+      <c r="J216" t="s">
+        <v>963</v>
+      </c>
       <c r="K216" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="L216" t="s">
-        <v>964</v>
-      </c>
-      <c r="M216" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>966</v>
       </c>
@@ -13036,17 +13036,17 @@
       <c r="I217" t="s">
         <v>708</v>
       </c>
+      <c r="J217" t="s">
+        <v>967</v>
+      </c>
       <c r="K217" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="L217" t="s">
-        <v>968</v>
-      </c>
-      <c r="M217" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>970</v>
       </c>
@@ -13074,17 +13074,17 @@
       <c r="I218" t="s">
         <v>119</v>
       </c>
+      <c r="J218" t="s">
+        <v>971</v>
+      </c>
       <c r="K218" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="L218" t="s">
-        <v>972</v>
-      </c>
-      <c r="M218" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>974</v>
       </c>
@@ -13112,17 +13112,17 @@
       <c r="I219" t="s">
         <v>51</v>
       </c>
+      <c r="J219" t="s">
+        <v>959</v>
+      </c>
       <c r="K219" t="s">
-        <v>959</v>
+        <v>975</v>
       </c>
       <c r="L219" t="s">
-        <v>975</v>
-      </c>
-      <c r="M219" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>977</v>
       </c>
@@ -13150,17 +13150,17 @@
       <c r="I220" t="s">
         <v>129</v>
       </c>
+      <c r="J220" t="s">
+        <v>80</v>
+      </c>
       <c r="K220" t="s">
-        <v>80</v>
+        <v>978</v>
       </c>
       <c r="L220" t="s">
-        <v>978</v>
-      </c>
-      <c r="M220" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>980</v>
       </c>
@@ -13185,17 +13185,17 @@
       <c r="I221" t="s">
         <v>365</v>
       </c>
+      <c r="J221" t="s">
+        <v>982</v>
+      </c>
       <c r="K221" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="L221" t="s">
-        <v>983</v>
-      </c>
-      <c r="M221" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>985</v>
       </c>
@@ -13223,17 +13223,17 @@
       <c r="I222" t="s">
         <v>986</v>
       </c>
+      <c r="J222" t="s">
+        <v>987</v>
+      </c>
       <c r="K222" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="L222" t="s">
-        <v>988</v>
-      </c>
-      <c r="M222" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>990</v>
       </c>
@@ -13261,17 +13261,17 @@
       <c r="I223" t="s">
         <v>800</v>
       </c>
+      <c r="J223" t="s">
+        <v>991</v>
+      </c>
       <c r="K223" t="s">
-        <v>991</v>
+        <v>802</v>
       </c>
       <c r="L223" t="s">
-        <v>802</v>
-      </c>
-      <c r="M223" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>993</v>
       </c>
@@ -13296,17 +13296,17 @@
       <c r="I224" t="s">
         <v>533</v>
       </c>
+      <c r="J224" t="s">
+        <v>994</v>
+      </c>
       <c r="K224" t="s">
-        <v>994</v>
+        <v>643</v>
       </c>
       <c r="L224" t="s">
-        <v>643</v>
-      </c>
-      <c r="M224" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>996</v>
       </c>
@@ -13334,17 +13334,17 @@
       <c r="I225" t="s">
         <v>930</v>
       </c>
+      <c r="J225" t="s">
+        <v>625</v>
+      </c>
       <c r="K225" t="s">
-        <v>625</v>
+        <v>997</v>
       </c>
       <c r="L225" t="s">
-        <v>997</v>
-      </c>
-      <c r="M225" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>999</v>
       </c>
@@ -13372,17 +13372,17 @@
       <c r="I226" t="s">
         <v>478</v>
       </c>
+      <c r="J226" t="s">
+        <v>1000</v>
+      </c>
       <c r="K226" t="s">
-        <v>1000</v>
+        <v>813</v>
       </c>
       <c r="L226" t="s">
-        <v>813</v>
-      </c>
-      <c r="M226" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>1002</v>
       </c>
@@ -13410,17 +13410,17 @@
       <c r="I227" t="s">
         <v>361</v>
       </c>
+      <c r="J227" t="s">
+        <v>1003</v>
+      </c>
       <c r="K227" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="L227" t="s">
-        <v>1004</v>
-      </c>
-      <c r="M227" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1006</v>
       </c>
@@ -13448,17 +13448,17 @@
       <c r="I228" t="s">
         <v>986</v>
       </c>
+      <c r="J228" t="s">
+        <v>1007</v>
+      </c>
       <c r="K228" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="L228" t="s">
-        <v>1008</v>
-      </c>
-      <c r="M228" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>1010</v>
       </c>
@@ -13486,17 +13486,17 @@
       <c r="I229" t="s">
         <v>154</v>
       </c>
+      <c r="J229" t="s">
+        <v>1011</v>
+      </c>
       <c r="K229" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="L229" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M229" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>1014</v>
       </c>
@@ -13524,17 +13524,17 @@
       <c r="I230" t="s">
         <v>1015</v>
       </c>
+      <c r="J230" t="s">
+        <v>1016</v>
+      </c>
       <c r="K230" t="s">
-        <v>1016</v>
+        <v>664</v>
       </c>
       <c r="L230" t="s">
-        <v>664</v>
-      </c>
-      <c r="M230" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>1018</v>
       </c>
@@ -13562,17 +13562,17 @@
       <c r="I231" t="s">
         <v>716</v>
       </c>
+      <c r="J231" t="s">
+        <v>1019</v>
+      </c>
       <c r="K231" t="s">
-        <v>1019</v>
+        <v>503</v>
       </c>
       <c r="L231" t="s">
-        <v>503</v>
-      </c>
-      <c r="M231" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>1021</v>
       </c>
@@ -13600,17 +13600,17 @@
       <c r="I232" t="s">
         <v>478</v>
       </c>
+      <c r="J232" t="s">
+        <v>1022</v>
+      </c>
       <c r="K232" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L232" t="s">
-        <v>1023</v>
-      </c>
-      <c r="M232" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>1025</v>
       </c>
@@ -13638,17 +13638,17 @@
       <c r="I233" t="s">
         <v>1026</v>
       </c>
+      <c r="J233" t="s">
+        <v>971</v>
+      </c>
       <c r="K233" t="s">
-        <v>971</v>
+        <v>559</v>
       </c>
       <c r="L233" t="s">
-        <v>559</v>
-      </c>
-      <c r="M233" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>1028</v>
       </c>
@@ -13676,17 +13676,17 @@
       <c r="I234" t="s">
         <v>853</v>
       </c>
+      <c r="J234" t="s">
+        <v>1029</v>
+      </c>
       <c r="K234" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="L234" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M234" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1032</v>
       </c>
@@ -13714,17 +13714,17 @@
       <c r="I235" t="s">
         <v>867</v>
       </c>
+      <c r="J235" t="s">
+        <v>1033</v>
+      </c>
       <c r="K235" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="L235" t="s">
-        <v>1034</v>
-      </c>
-      <c r="M235" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>1036</v>
       </c>
@@ -13752,17 +13752,17 @@
       <c r="I236" t="s">
         <v>1037</v>
       </c>
+      <c r="J236" t="s">
+        <v>1038</v>
+      </c>
       <c r="K236" t="s">
-        <v>1038</v>
+        <v>601</v>
       </c>
       <c r="L236" t="s">
-        <v>601</v>
-      </c>
-      <c r="M236" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1040</v>
       </c>
@@ -13790,17 +13790,17 @@
       <c r="I237" t="s">
         <v>332</v>
       </c>
+      <c r="J237" t="s">
+        <v>1041</v>
+      </c>
       <c r="K237" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="L237" t="s">
-        <v>1042</v>
-      </c>
-      <c r="M237" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>1044</v>
       </c>
@@ -13828,17 +13828,17 @@
       <c r="I238" t="s">
         <v>351</v>
       </c>
+      <c r="J238" t="s">
+        <v>376</v>
+      </c>
       <c r="K238" t="s">
-        <v>376</v>
+        <v>559</v>
       </c>
       <c r="L238" t="s">
-        <v>559</v>
-      </c>
-      <c r="M238" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>1046</v>
       </c>
@@ -13866,17 +13866,17 @@
       <c r="I239" t="s">
         <v>805</v>
       </c>
+      <c r="J239" t="s">
+        <v>1048</v>
+      </c>
       <c r="K239" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="L239" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M239" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>1051</v>
       </c>
@@ -13901,17 +13901,17 @@
       <c r="I240" t="s">
         <v>289</v>
       </c>
+      <c r="J240" t="s">
+        <v>1052</v>
+      </c>
       <c r="K240" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="L240" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M240" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>1055</v>
       </c>
@@ -13936,17 +13936,17 @@
       <c r="I241" t="s">
         <v>129</v>
       </c>
+      <c r="J241" t="s">
+        <v>1056</v>
+      </c>
       <c r="K241" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="L241" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M241" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>1059</v>
       </c>
@@ -13974,17 +13974,17 @@
       <c r="I242" t="s">
         <v>861</v>
       </c>
+      <c r="J242" t="s">
+        <v>877</v>
+      </c>
       <c r="K242" t="s">
-        <v>877</v>
+        <v>1060</v>
       </c>
       <c r="L242" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M242" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>1062</v>
       </c>
@@ -14012,17 +14012,17 @@
       <c r="I243" t="s">
         <v>1063</v>
       </c>
+      <c r="J243" t="s">
+        <v>1064</v>
+      </c>
       <c r="K243" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="L243" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M243" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>1067</v>
       </c>
@@ -14050,17 +14050,17 @@
       <c r="I244" t="s">
         <v>1068</v>
       </c>
+      <c r="J244" t="s">
+        <v>1069</v>
+      </c>
       <c r="K244" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="L244" t="s">
-        <v>1070</v>
-      </c>
-      <c r="M244" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>1072</v>
       </c>
@@ -14088,17 +14088,17 @@
       <c r="I245" t="s">
         <v>154</v>
       </c>
+      <c r="J245" t="s">
+        <v>1073</v>
+      </c>
       <c r="K245" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="L245" t="s">
-        <v>1074</v>
-      </c>
-      <c r="M245" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>1076</v>
       </c>
@@ -14126,17 +14126,17 @@
       <c r="I246" t="s">
         <v>457</v>
       </c>
+      <c r="J246" t="s">
+        <v>1077</v>
+      </c>
       <c r="K246" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="L246" t="s">
-        <v>1078</v>
-      </c>
-      <c r="M246" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>1080</v>
       </c>
@@ -14164,17 +14164,17 @@
       <c r="I247" t="s">
         <v>88</v>
       </c>
+      <c r="J247" t="s">
+        <v>1081</v>
+      </c>
       <c r="K247" t="s">
-        <v>1081</v>
+        <v>1012</v>
       </c>
       <c r="L247" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M247" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>1083</v>
       </c>
@@ -14202,17 +14202,17 @@
       <c r="I248" t="s">
         <v>252</v>
       </c>
+      <c r="J248" t="s">
+        <v>926</v>
+      </c>
       <c r="K248" t="s">
-        <v>926</v>
+        <v>559</v>
       </c>
       <c r="L248" t="s">
-        <v>559</v>
-      </c>
-      <c r="M248" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>1085</v>
       </c>
@@ -14240,17 +14240,17 @@
       <c r="I249" t="s">
         <v>1086</v>
       </c>
+      <c r="J249" t="s">
+        <v>1087</v>
+      </c>
       <c r="K249" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="L249" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M249" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>1090</v>
       </c>
@@ -14278,17 +14278,17 @@
       <c r="I250" t="s">
         <v>473</v>
       </c>
+      <c r="J250" t="s">
+        <v>1091</v>
+      </c>
       <c r="K250" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="L250" t="s">
-        <v>1092</v>
-      </c>
-      <c r="M250" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>1094</v>
       </c>
@@ -14316,17 +14316,17 @@
       <c r="I251" t="s">
         <v>207</v>
       </c>
+      <c r="J251" t="s">
+        <v>558</v>
+      </c>
       <c r="K251" t="s">
-        <v>558</v>
+        <v>1095</v>
       </c>
       <c r="L251" t="s">
-        <v>1095</v>
-      </c>
-      <c r="M251" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>1097</v>
       </c>
@@ -14354,17 +14354,17 @@
       <c r="I252" t="s">
         <v>357</v>
       </c>
+      <c r="J252" t="s">
+        <v>1098</v>
+      </c>
       <c r="K252" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="L252" t="s">
-        <v>1099</v>
-      </c>
-      <c r="M252" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>1101</v>
       </c>
@@ -14392,17 +14392,17 @@
       <c r="I253" t="s">
         <v>501</v>
       </c>
+      <c r="J253" t="s">
+        <v>1102</v>
+      </c>
       <c r="K253" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="L253" t="s">
-        <v>1103</v>
-      </c>
-      <c r="M253" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>1105</v>
       </c>
@@ -14430,17 +14430,17 @@
       <c r="I254" t="s">
         <v>129</v>
       </c>
+      <c r="J254" t="s">
+        <v>1106</v>
+      </c>
       <c r="K254" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="L254" t="s">
-        <v>1107</v>
-      </c>
-      <c r="M254" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>1109</v>
       </c>
@@ -14468,17 +14468,17 @@
       <c r="I255" t="s">
         <v>741</v>
       </c>
+      <c r="J255" t="s">
+        <v>1110</v>
+      </c>
       <c r="K255" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="L255" t="s">
-        <v>1111</v>
-      </c>
-      <c r="M255" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>1113</v>
       </c>
@@ -14506,17 +14506,17 @@
       <c r="I256" t="s">
         <v>154</v>
       </c>
+      <c r="J256" t="s">
+        <v>1114</v>
+      </c>
       <c r="K256" t="s">
-        <v>1114</v>
+        <v>36</v>
       </c>
       <c r="L256" t="s">
-        <v>36</v>
-      </c>
-      <c r="M256" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>1116</v>
       </c>
@@ -14544,17 +14544,17 @@
       <c r="I257" t="s">
         <v>114</v>
       </c>
+      <c r="J257" t="s">
+        <v>347</v>
+      </c>
       <c r="K257" t="s">
-        <v>347</v>
+        <v>1117</v>
       </c>
       <c r="L257" t="s">
-        <v>1117</v>
-      </c>
-      <c r="M257" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1119</v>
       </c>
@@ -14582,17 +14582,17 @@
       <c r="I258" t="s">
         <v>94</v>
       </c>
+      <c r="J258" t="s">
+        <v>1120</v>
+      </c>
       <c r="K258" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="L258" t="s">
-        <v>1121</v>
-      </c>
-      <c r="M258" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1123</v>
       </c>
@@ -14620,17 +14620,17 @@
       <c r="I259" t="s">
         <v>457</v>
       </c>
+      <c r="J259" t="s">
+        <v>1124</v>
+      </c>
       <c r="K259" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="L259" t="s">
-        <v>1125</v>
-      </c>
-      <c r="M259" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>1127</v>
       </c>
@@ -14655,17 +14655,17 @@
       <c r="I260" t="s">
         <v>741</v>
       </c>
+      <c r="J260" t="s">
+        <v>1128</v>
+      </c>
       <c r="K260" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="L260" t="s">
-        <v>1129</v>
-      </c>
-      <c r="M260" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>1131</v>
       </c>
@@ -14693,17 +14693,17 @@
       <c r="I261" t="s">
         <v>34</v>
       </c>
+      <c r="J261" t="s">
+        <v>1132</v>
+      </c>
       <c r="K261" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="L261" t="s">
-        <v>1133</v>
-      </c>
-      <c r="M261" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>1135</v>
       </c>
@@ -14731,17 +14731,17 @@
       <c r="I262" t="s">
         <v>370</v>
       </c>
+      <c r="J262" t="s">
+        <v>1136</v>
+      </c>
       <c r="K262" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="L262" t="s">
-        <v>1137</v>
-      </c>
-      <c r="M262" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>1139</v>
       </c>
@@ -14769,17 +14769,17 @@
       <c r="I263" t="s">
         <v>252</v>
       </c>
+      <c r="J263" t="s">
+        <v>1140</v>
+      </c>
       <c r="K263" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="L263" t="s">
-        <v>1141</v>
-      </c>
-      <c r="M263" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1143</v>
       </c>
@@ -14807,17 +14807,17 @@
       <c r="I264" t="s">
         <v>1144</v>
       </c>
+      <c r="J264" t="s">
+        <v>1145</v>
+      </c>
       <c r="K264" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="L264" t="s">
-        <v>1146</v>
-      </c>
-      <c r="M264" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>1148</v>
       </c>
@@ -14845,17 +14845,17 @@
       <c r="I265" t="s">
         <v>45</v>
       </c>
+      <c r="J265" t="s">
+        <v>1149</v>
+      </c>
       <c r="K265" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="L265" t="s">
-        <v>1150</v>
-      </c>
-      <c r="M265" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>1152</v>
       </c>
@@ -14883,17 +14883,17 @@
       <c r="I266" t="s">
         <v>654</v>
       </c>
+      <c r="J266" t="s">
+        <v>1153</v>
+      </c>
       <c r="K266" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="L266" t="s">
-        <v>1154</v>
-      </c>
-      <c r="M266" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>1156</v>
       </c>
@@ -14921,17 +14921,17 @@
       <c r="I267" t="s">
         <v>327</v>
       </c>
+      <c r="J267" t="s">
+        <v>1157</v>
+      </c>
       <c r="K267" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="L267" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M267" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>1160</v>
       </c>
@@ -14959,17 +14959,17 @@
       <c r="I268" t="s">
         <v>930</v>
       </c>
+      <c r="J268" t="s">
+        <v>1161</v>
+      </c>
       <c r="K268" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="L268" t="s">
-        <v>1162</v>
-      </c>
-      <c r="M268" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>1164</v>
       </c>
@@ -14997,17 +14997,17 @@
       <c r="I269" t="s">
         <v>346</v>
       </c>
+      <c r="J269" t="s">
+        <v>89</v>
+      </c>
       <c r="K269" t="s">
-        <v>89</v>
+        <v>397</v>
       </c>
       <c r="L269" t="s">
-        <v>397</v>
-      </c>
-      <c r="M269" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>1166</v>
       </c>
@@ -15035,17 +15035,17 @@
       <c r="I270" t="s">
         <v>816</v>
       </c>
+      <c r="J270" t="s">
+        <v>1167</v>
+      </c>
       <c r="K270" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="L270" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M270" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>1170</v>
       </c>
@@ -15073,17 +15073,17 @@
       <c r="I271" t="s">
         <v>134</v>
       </c>
+      <c r="J271" t="s">
+        <v>1171</v>
+      </c>
       <c r="K271" t="s">
-        <v>1171</v>
+        <v>446</v>
       </c>
       <c r="L271" t="s">
-        <v>446</v>
-      </c>
-      <c r="M271" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1173</v>
       </c>
@@ -15111,17 +15111,17 @@
       <c r="I272" t="s">
         <v>457</v>
       </c>
+      <c r="J272" t="s">
+        <v>1174</v>
+      </c>
       <c r="K272" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="L272" t="s">
-        <v>1175</v>
-      </c>
-      <c r="M272" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1177</v>
       </c>
@@ -15149,17 +15149,17 @@
       <c r="I273" t="s">
         <v>28</v>
       </c>
+      <c r="J273" t="s">
+        <v>1178</v>
+      </c>
       <c r="K273" t="s">
-        <v>1178</v>
+        <v>437</v>
       </c>
       <c r="L273" t="s">
-        <v>437</v>
-      </c>
-      <c r="M273" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>1180</v>
       </c>
@@ -15187,17 +15187,17 @@
       <c r="I274" t="s">
         <v>232</v>
       </c>
+      <c r="J274" t="s">
+        <v>1181</v>
+      </c>
       <c r="K274" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="L274" t="s">
-        <v>1182</v>
-      </c>
-      <c r="M274" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1184</v>
       </c>
@@ -15225,17 +15225,17 @@
       <c r="I275" t="s">
         <v>144</v>
       </c>
+      <c r="J275" t="s">
+        <v>1185</v>
+      </c>
       <c r="K275" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="L275" t="s">
-        <v>1186</v>
-      </c>
-      <c r="M275" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1188</v>
       </c>
@@ -15263,17 +15263,17 @@
       <c r="I276" t="s">
         <v>129</v>
       </c>
+      <c r="J276" t="s">
+        <v>1189</v>
+      </c>
       <c r="K276" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="L276" t="s">
-        <v>1190</v>
-      </c>
-      <c r="M276" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1192</v>
       </c>
@@ -15301,17 +15301,17 @@
       <c r="I277" t="s">
         <v>207</v>
       </c>
+      <c r="J277" t="s">
+        <v>506</v>
+      </c>
       <c r="K277" t="s">
-        <v>506</v>
+        <v>1193</v>
       </c>
       <c r="L277" t="s">
-        <v>1193</v>
-      </c>
-      <c r="M277" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1195</v>
       </c>
@@ -15339,17 +15339,17 @@
       <c r="I278" t="s">
         <v>400</v>
       </c>
+      <c r="J278" t="s">
+        <v>1196</v>
+      </c>
       <c r="K278" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="L278" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M278" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>1199</v>
       </c>
@@ -15377,17 +15377,17 @@
       <c r="I279" t="s">
         <v>1200</v>
       </c>
+      <c r="J279" t="s">
+        <v>1201</v>
+      </c>
       <c r="K279" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="L279" t="s">
-        <v>1202</v>
-      </c>
-      <c r="M279" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>1204</v>
       </c>
@@ -15415,17 +15415,17 @@
       <c r="I280" t="s">
         <v>207</v>
       </c>
+      <c r="J280" t="s">
+        <v>1205</v>
+      </c>
       <c r="K280" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="L280" t="s">
-        <v>1206</v>
-      </c>
-      <c r="M280" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>1208</v>
       </c>
@@ -15453,17 +15453,17 @@
       <c r="I281" t="s">
         <v>1209</v>
       </c>
+      <c r="J281" t="s">
+        <v>1077</v>
+      </c>
       <c r="K281" t="s">
-        <v>1077</v>
+        <v>1210</v>
       </c>
       <c r="L281" t="s">
-        <v>1210</v>
-      </c>
-      <c r="M281" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>1212</v>
       </c>
@@ -15491,17 +15491,17 @@
       <c r="I282" t="s">
         <v>1213</v>
       </c>
+      <c r="J282" t="s">
+        <v>1214</v>
+      </c>
       <c r="K282" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="L282" t="s">
-        <v>1215</v>
-      </c>
-      <c r="M282" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>1217</v>
       </c>
@@ -15529,17 +15529,17 @@
       <c r="I283" t="s">
         <v>501</v>
       </c>
+      <c r="J283" t="s">
+        <v>1218</v>
+      </c>
       <c r="K283" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="L283" t="s">
-        <v>1219</v>
-      </c>
-      <c r="M283" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1221</v>
       </c>
@@ -15567,17 +15567,17 @@
       <c r="I284" t="s">
         <v>58</v>
       </c>
+      <c r="J284" t="s">
+        <v>1222</v>
+      </c>
       <c r="K284" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="L284" t="s">
-        <v>1223</v>
-      </c>
-      <c r="M284" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>1225</v>
       </c>
@@ -15605,17 +15605,17 @@
       <c r="I285" t="s">
         <v>119</v>
       </c>
+      <c r="J285" t="s">
+        <v>105</v>
+      </c>
       <c r="K285" t="s">
-        <v>105</v>
+        <v>1226</v>
       </c>
       <c r="L285" t="s">
-        <v>1226</v>
-      </c>
-      <c r="M285" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>1228</v>
       </c>
@@ -15643,17 +15643,17 @@
       <c r="I286" t="s">
         <v>800</v>
       </c>
+      <c r="J286" t="s">
+        <v>1229</v>
+      </c>
       <c r="K286" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="L286" t="s">
-        <v>1230</v>
-      </c>
-      <c r="M286" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>1232</v>
       </c>
@@ -15681,17 +15681,17 @@
       <c r="I287" t="s">
         <v>119</v>
       </c>
+      <c r="J287" t="s">
+        <v>881</v>
+      </c>
       <c r="K287" t="s">
-        <v>881</v>
+        <v>1233</v>
       </c>
       <c r="L287" t="s">
-        <v>1233</v>
-      </c>
-      <c r="M287" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>1235</v>
       </c>
@@ -15719,17 +15719,17 @@
       <c r="I288" t="s">
         <v>252</v>
       </c>
+      <c r="J288" t="s">
+        <v>1236</v>
+      </c>
       <c r="K288" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="L288" t="s">
-        <v>1237</v>
-      </c>
-      <c r="M288" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>1239</v>
       </c>
@@ -15757,17 +15757,17 @@
       <c r="I289" t="s">
         <v>129</v>
       </c>
+      <c r="J289" t="s">
+        <v>1240</v>
+      </c>
       <c r="K289" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="L289" t="s">
-        <v>1241</v>
-      </c>
-      <c r="M289" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>1243</v>
       </c>
@@ -15795,17 +15795,17 @@
       <c r="I290" t="s">
         <v>385</v>
       </c>
+      <c r="J290" t="s">
+        <v>1244</v>
+      </c>
       <c r="K290" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="L290" t="s">
-        <v>1245</v>
-      </c>
-      <c r="M290" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>1247</v>
       </c>
@@ -15833,17 +15833,17 @@
       <c r="I291" t="s">
         <v>346</v>
       </c>
+      <c r="J291" t="s">
+        <v>1248</v>
+      </c>
       <c r="K291" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="L291" t="s">
-        <v>1249</v>
-      </c>
-      <c r="M291" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>1251</v>
       </c>
@@ -15871,17 +15871,17 @@
       <c r="I292" t="s">
         <v>930</v>
       </c>
+      <c r="J292" t="s">
+        <v>625</v>
+      </c>
       <c r="K292" t="s">
-        <v>625</v>
+        <v>1252</v>
       </c>
       <c r="L292" t="s">
-        <v>1252</v>
-      </c>
-      <c r="M292" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>1254</v>
       </c>
@@ -15909,17 +15909,17 @@
       <c r="I293" t="s">
         <v>400</v>
       </c>
+      <c r="J293" t="s">
+        <v>1255</v>
+      </c>
       <c r="K293" t="s">
-        <v>1255</v>
+        <v>919</v>
       </c>
       <c r="L293" t="s">
-        <v>919</v>
-      </c>
-      <c r="M293" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>1257</v>
       </c>
@@ -15947,17 +15947,17 @@
       <c r="I294" t="s">
         <v>159</v>
       </c>
+      <c r="J294" t="s">
+        <v>1258</v>
+      </c>
       <c r="K294" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="L294" t="s">
-        <v>1259</v>
-      </c>
-      <c r="M294" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>1261</v>
       </c>
@@ -15985,17 +15985,17 @@
       <c r="I295" t="s">
         <v>34</v>
       </c>
+      <c r="J295" t="s">
+        <v>1262</v>
+      </c>
       <c r="K295" t="s">
-        <v>1262</v>
+        <v>23</v>
       </c>
       <c r="L295" t="s">
-        <v>23</v>
-      </c>
-      <c r="M295" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>1264</v>
       </c>
@@ -16020,17 +16020,17 @@
       <c r="I296" t="s">
         <v>741</v>
       </c>
+      <c r="J296" t="s">
+        <v>1265</v>
+      </c>
       <c r="K296" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="L296" t="s">
-        <v>1266</v>
-      </c>
-      <c r="M296" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>1268</v>
       </c>
@@ -16058,17 +16058,17 @@
       <c r="I297" t="s">
         <v>34</v>
       </c>
+      <c r="J297" t="s">
+        <v>1269</v>
+      </c>
       <c r="K297" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="L297" t="s">
-        <v>1270</v>
-      </c>
-      <c r="M297" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>1272</v>
       </c>
@@ -16096,17 +16096,17 @@
       <c r="I298" t="s">
         <v>444</v>
       </c>
+      <c r="J298" t="s">
+        <v>1273</v>
+      </c>
       <c r="K298" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="L298" t="s">
-        <v>1274</v>
-      </c>
-      <c r="M298" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>1276</v>
       </c>
@@ -16134,17 +16134,17 @@
       <c r="I299" t="s">
         <v>34</v>
       </c>
+      <c r="J299" t="s">
+        <v>926</v>
+      </c>
       <c r="K299" t="s">
-        <v>926</v>
+        <v>559</v>
       </c>
       <c r="L299" t="s">
-        <v>559</v>
-      </c>
-      <c r="M299" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>1278</v>
       </c>
@@ -16172,17 +16172,17 @@
       <c r="I300" t="s">
         <v>1279</v>
       </c>
+      <c r="J300" t="s">
+        <v>1280</v>
+      </c>
       <c r="K300" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="L300" t="s">
-        <v>1281</v>
-      </c>
-      <c r="M300" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>1283</v>
       </c>
@@ -16210,17 +16210,17 @@
       <c r="I301" t="s">
         <v>58</v>
       </c>
+      <c r="J301" t="s">
+        <v>1284</v>
+      </c>
       <c r="K301" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="L301" t="s">
-        <v>1285</v>
-      </c>
-      <c r="M301" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>1287</v>
       </c>
@@ -16248,17 +16248,17 @@
       <c r="I302" t="s">
         <v>1144</v>
       </c>
+      <c r="J302" t="s">
+        <v>1288</v>
+      </c>
       <c r="K302" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="L302" t="s">
-        <v>1289</v>
-      </c>
-      <c r="M302" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>1291</v>
       </c>
@@ -16286,17 +16286,17 @@
       <c r="I303" t="s">
         <v>1213</v>
       </c>
+      <c r="J303" t="s">
+        <v>1292</v>
+      </c>
       <c r="K303" t="s">
-        <v>1292</v>
+        <v>321</v>
       </c>
       <c r="L303" t="s">
-        <v>321</v>
-      </c>
-      <c r="M303" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>1294</v>
       </c>
@@ -16324,17 +16324,17 @@
       <c r="I304" t="s">
         <v>1295</v>
       </c>
+      <c r="J304" t="s">
+        <v>1296</v>
+      </c>
       <c r="K304" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="L304" t="s">
-        <v>1297</v>
-      </c>
-      <c r="M304" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>1299</v>
       </c>
@@ -16362,17 +16362,17 @@
       <c r="I305" t="s">
         <v>1300</v>
       </c>
+      <c r="J305" t="s">
+        <v>1301</v>
+      </c>
       <c r="K305" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="L305" t="s">
-        <v>1302</v>
-      </c>
-      <c r="M305" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>1304</v>
       </c>
@@ -16400,17 +16400,17 @@
       <c r="I306" t="s">
         <v>114</v>
       </c>
+      <c r="J306" t="s">
+        <v>1305</v>
+      </c>
       <c r="K306" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="L306" t="s">
-        <v>1306</v>
-      </c>
-      <c r="M306" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>1308</v>
       </c>
@@ -16438,17 +16438,17 @@
       <c r="I307" t="s">
         <v>671</v>
       </c>
+      <c r="J307" t="s">
+        <v>1309</v>
+      </c>
       <c r="K307" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="L307" t="s">
-        <v>1310</v>
-      </c>
-      <c r="M307" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1312</v>
       </c>
@@ -16473,17 +16473,17 @@
       <c r="I308" t="s">
         <v>1037</v>
       </c>
+      <c r="J308" t="s">
+        <v>1313</v>
+      </c>
       <c r="K308" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L308" t="s">
-        <v>1314</v>
-      </c>
-      <c r="M308" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1316</v>
       </c>
@@ -16511,17 +16511,17 @@
       <c r="I309" t="s">
         <v>58</v>
       </c>
+      <c r="J309" t="s">
+        <v>1317</v>
+      </c>
       <c r="K309" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="L309" t="s">
-        <v>1318</v>
-      </c>
-      <c r="M309" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1320</v>
       </c>
@@ -16549,13 +16549,13 @@
       <c r="I310" t="s">
         <v>716</v>
       </c>
+      <c r="J310" t="s">
+        <v>1321</v>
+      </c>
       <c r="K310" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="L310" t="s">
-        <v>1322</v>
-      </c>
-      <c r="M310" t="s">
         <v>1323</v>
       </c>
     </row>
